--- a/OnBoard/output/trust/catch/Catch_Trust_10.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_10.xlsx
@@ -2253,7 +2253,7 @@
         <v>0.117</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I46">
         <v>27.93886363636364</v>
@@ -3073,7 +3073,7 @@
         <v>0.873</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I66">
         <v>27.93886363636364</v>
@@ -3196,7 +3196,7 @@
         <v>0.49</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I69">
         <v>27.93886363636364</v>
